--- a/spec/workbook/worksheet/extensions/conditional_formattings/conditional_formatting_top_10.xlsx
+++ b/spec/workbook/worksheet/extensions/conditional_formattings/conditional_formatting_top_10.xlsx
@@ -565,7 +565,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="top10" priority="1" percent="1" rank="10" id="{008500B6-00FD-4CB6-8CCB-001600A400F5}">
+          <x14:cfRule type="top10" priority="1" bottom="1" percent="1" rank="10" id="{00EB0021-00E9-4204-8EBA-0035008F0005}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
